--- a/src/main/resources/poster/files/test.xlsx
+++ b/src/main/resources/poster/files/test.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Series" r:id="rId3" sheetId="1"/>
+    <sheet name="Season" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -29,7 +30,7 @@
     <t>trailerUrl</t>
   </si>
   <si>
-    <t>seasons</t>
+    <t>seasonsIds</t>
   </si>
   <si>
     <t>WandaVision</t>
@@ -50,24 +51,28 @@
   <si>
     <t>[]</t>
   </si>
+  <si>
+    <t>seriesId</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>episodesIds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="4">
@@ -100,68 +105,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.4375" customWidth="true"/>
+    <col min="2" max="2" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="4" max="4" width="23.4375" customWidth="true"/>
+    <col min="5" max="5" width="23.4375" customWidth="true"/>
+    <col min="6" max="6" width="23.4375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="B1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="C1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="D1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="E1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="F1" t="s" s="2">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="23.4375" customWidth="true"/>
+    <col min="2" max="2" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="23.4375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>